--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_396__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_396__Reeval_Sobol_Modell_1.1.xlsx
@@ -6118,16 +6118,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>1.291359782218933</c:v>
+                  <c:v>1.291357517242432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.264106273651123</c:v>
+                  <c:v>3.264113187789917</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>47.4932975769043</c:v>
@@ -6136,7 +6136,7 @@
                   <c:v>0.6003332138061523</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.34191131591797</c:v>
+                  <c:v>45.3419075012207</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>45.05932235717773</c:v>
@@ -6157,28 +6157,28 @@
                   <c:v>1.324630975723267</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.94326400756836</c:v>
+                  <c:v>45.94326019287109</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.48598098754883</c:v>
+                  <c:v>45.48597717285156</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.64420318603516</c:v>
+                  <c:v>51.64419937133789</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>47.20949172973633</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.28913688659668</c:v>
+                  <c:v>30.28913497924805</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>52.9719123840332</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>53.48044967651367</c:v>
+                  <c:v>53.48044586181641</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.91403198242188</c:v>
+                  <c:v>34.91403579711914</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>50.54110717773438</c:v>
@@ -6193,19 +6193,19 @@
                   <c:v>52.51171875</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5996197462081909</c:v>
+                  <c:v>0.5996220111846924</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.462311178445816</c:v>
+                  <c:v>0.4623088836669922</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>51.81944274902344</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.34587669372559</c:v>
+                  <c:v>16.34587860107422</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>53.64072418212891</c:v>
@@ -6214,34 +6214,34 @@
                   <c:v>1.372910141944885</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.9986003041267395</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>56.06390762329102</c:v>
+                  <c:v>56.06390380859375</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>48.81734466552734</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.027091503143311</c:v>
+                  <c:v>1.027093768119812</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1.974859595298767</c:v>
@@ -6250,10 +6250,10 @@
                   <c:v>52.42749786376953</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>51.52160263061523</c:v>
+                  <c:v>51.5216064453125</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.213593006134033</c:v>
+                  <c:v>4.213595390319824</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45.70647048950195</c:v>
@@ -6268,16 +6268,16 @@
                   <c:v>52.12210845947266</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.403614044189453</c:v>
+                  <c:v>6.403615474700928</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>37.60253143310547</c:v>
+                  <c:v>37.60253524780273</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.845788955688477</c:v>
+                  <c:v>4.845786571502686</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>53.52081298828125</c:v>
@@ -6286,61 +6286,61 @@
                   <c:v>51.54059219360352</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.129864692687988</c:v>
+                  <c:v>8.129866600036621</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>50.05193710327148</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>49.60947036743164</c:v>
+                  <c:v>49.60946655273438</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21.01796531677246</c:v>
+                  <c:v>21.01796340942383</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.5017984509468079</c:v>
+                  <c:v>0.5017961859703064</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>54.92968368530273</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>36.98826599121094</c:v>
+                  <c:v>36.98826217651367</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>1.450802087783813</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>48.70526504516602</c:v>
+                  <c:v>48.70526885986328</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.5722181797027588</c:v>
+                  <c:v>0.572220504283905</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>39.3099365234375</c:v>
+                  <c:v>39.30993270874023</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.9098581671714783</c:v>
+                  <c:v>0.9098536372184753</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>5.287445545196533</c:v>
@@ -6349,10 +6349,10 @@
                   <c:v>47.07951354980469</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>51.24142837524414</c:v>
+                  <c:v>51.24143218994141</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>49.67589950561523</c:v>
@@ -6361,13 +6361,13 @@
                   <c:v>49.18071746826172</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.263169288635254</c:v>
+                  <c:v>4.263174057006836</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>46.46986389160156</c:v>
@@ -6385,16 +6385,16 @@
                   <c:v>41.96394348144531</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>53.04426193237305</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>53.10211563110352</c:v>
+                  <c:v>53.10211944580078</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>48.06049728393555</c:v>
@@ -6403,28 +6403,28 @@
                   <c:v>2.910040378570557</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.621869683265686</c:v>
+                  <c:v>0.6218673586845398</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>47.76312255859375</c:v>
+                  <c:v>47.76313018798828</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>50.81512451171875</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>27.97772216796875</c:v>
+                  <c:v>27.97772026062012</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>50.32730102539062</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>46.15316009521484</c:v>
+                  <c:v>46.15316390991211</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.6218719482421875</c:v>
+                  <c:v>0.621869683265686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.291359782218933</v>
+        <v>1.291357517242432</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>34.7122</v>
       </c>
       <c r="F3">
-        <v>3.264106273651123</v>
+        <v>3.264113187789917</v>
       </c>
       <c r="G3">
         <v>77</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
       <c r="G4">
         <v>77</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
       <c r="G5">
         <v>77</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>45.34191131591797</v>
+        <v>45.3419075012207</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>45.6578</v>
       </c>
       <c r="F15">
-        <v>45.94326400756836</v>
+        <v>45.94326019287109</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>26.5051</v>
       </c>
       <c r="F16">
-        <v>45.48598098754883</v>
+        <v>45.48597717285156</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>51.572</v>
       </c>
       <c r="F17">
-        <v>51.64420318603516</v>
+        <v>51.64419937133789</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.28913688659668</v>
+        <v>30.28913497924805</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>51.6611</v>
       </c>
       <c r="F21">
-        <v>53.48044967651367</v>
+        <v>53.48044586181641</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>34.2646</v>
       </c>
       <c r="F22">
-        <v>34.91403198242188</v>
+        <v>34.91403579711914</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.5996197462081909</v>
+        <v>0.5996220111846924</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.462311178445816</v>
+        <v>0.4623088836669922</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>51.9912</v>
       </c>
       <c r="F31">
-        <v>16.34587669372559</v>
+        <v>16.34587860107422</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>50.7435</v>
       </c>
       <c r="F40">
-        <v>56.06390762329102</v>
+        <v>56.06390380859375</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.027091503143311</v>
+        <v>1.027093768119812</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>49.825</v>
       </c>
       <c r="F46">
-        <v>51.52160263061523</v>
+        <v>51.5216064453125</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>4.213593006134033</v>
+        <v>4.213595390319824</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>6.403614044189453</v>
+        <v>6.403615474700928</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>34.2886</v>
       </c>
       <c r="F53">
-        <v>37.60253143310547</v>
+        <v>37.60253524780273</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>39.3649</v>
       </c>
       <c r="F55">
-        <v>4.845788955688477</v>
+        <v>4.845786571502686</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>46.476</v>
       </c>
       <c r="F59">
-        <v>8.129864692687988</v>
+        <v>8.129866600036621</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>35.7539</v>
       </c>
       <c r="F61">
-        <v>49.60947036743164</v>
+        <v>49.60946655273438</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>21.01796531677246</v>
+        <v>21.01796340942383</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>49.8526</v>
       </c>
       <c r="F63">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.5017984509468079</v>
+        <v>0.5017961859703064</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>45.7573</v>
       </c>
       <c r="F66">
-        <v>36.98826599121094</v>
+        <v>36.98826217651367</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>38.2901</v>
       </c>
       <c r="F70">
-        <v>48.70526504516602</v>
+        <v>48.70526885986328</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.5722181797027588</v>
+        <v>0.572220504283905</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>47.053</v>
       </c>
       <c r="F74">
-        <v>39.3099365234375</v>
+        <v>39.30993270874023</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.9098581671714783</v>
+        <v>0.9098536372184753</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>45.928</v>
       </c>
       <c r="F80">
-        <v>51.24142837524414</v>
+        <v>51.24143218994141</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>4.263169288635254</v>
+        <v>4.263174057006836</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>51.117</v>
       </c>
       <c r="F94">
-        <v>53.10211563110352</v>
+        <v>53.10211944580078</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0.621869683265686</v>
+        <v>0.6218673586845398</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>41.217</v>
       </c>
       <c r="F99">
-        <v>47.76312255859375</v>
+        <v>47.76313018798828</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>27.97772216796875</v>
+        <v>27.97772026062012</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>58.1678</v>
       </c>
       <c r="F103">
-        <v>46.15316009521484</v>
+        <v>46.15316390991211</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0.6218719482421875</v>
+        <v>0.621869683265686</v>
       </c>
     </row>
     <row r="105" spans="1:6">
